--- a/[服務商優惠徵集 ] Paid.xlsx
+++ b/[服務商優惠徵集 ] Paid.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanniel\OneDrive - amazon.com\桌面\2025 Q4 SSP benefits\Paid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5016FCDF-B264-4173-836D-32AC4E1B998B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ACF2D-3AC8-492B-B960-6A6FA5E6D90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>您的姓名</t>
   </si>
@@ -58,18 +71,9 @@
     <t xml:space="preserve">若您有官網/Line QR code, 也歡迎上傳  (請以貴公司名作為檔案名) </t>
   </si>
   <si>
-    <t>吳廷萱</t>
-  </si>
-  <si>
-    <t>lindawu1969@gmail.com</t>
-  </si>
-  <si>
     <t>靈志科技有限公司</t>
   </si>
   <si>
-    <t>ChanceSight.com</t>
-  </si>
-  <si>
     <t>0960197960</t>
   </si>
   <si>
@@ -86,12 +90,6 @@
   </si>
   <si>
     <t>https://www.payoneer.com/</t>
-  </si>
-  <si>
-    <t>0909604190</t>
-  </si>
-  <si>
-    <t>lucas0122</t>
   </si>
   <si>
     <t>洪銘言 Frank</t>
@@ -151,11 +149,6 @@
     <t>站外導流</t>
   </si>
   <si>
-    <t>Google/Meta廣告
-• 自營投廣: 廣告服務費降至2.5% (原3%)​
-• 廣告代操: 服務費最低至15% (季投遞額30萬以上)​</t>
-  </si>
-  <si>
     <t>WotoHub網紅平台 ​</t>
   </si>
   <si>
@@ -204,12 +197,6 @@
     <t>https://drive.google.com/open?id=1wDiUmmByVQtEyMe_bfD6gCTg3Qhxnfxd</t>
   </si>
   <si>
-    <t>Joanna Li</t>
-  </si>
-  <si>
-    <t>joanna@ad-hub.net</t>
-  </si>
-  <si>
     <t>Lucia Chang</t>
   </si>
   <si>
@@ -229,9 +216,6 @@
   </si>
   <si>
     <t>https://www.ad-hub.net/</t>
-  </si>
-  <si>
-    <t>(02)6631-5652</t>
   </si>
   <si>
     <t>WotoHub海外網紅智能行銷雲，由WotoKOL臥兔自主研發的海外網紅行銷利器，匯集全球六千萬活躍海外網紅資源，涵蓋YouTube、TikTok、Instagram三大核心平台，協助賣家解決從入門到佈局海外網紅行銷的全鏈路問題，與帶貨網紅緊密連動，快速實現品牌效益合一。</t>
@@ -370,12 +354,47 @@
 每支影片免費加贈剪輯 1 支 15 秒內短版本（可作為其他內容營銷使用）</t>
     </r>
   </si>
+  <si>
+    <t>Linda Wu</t>
+  </si>
+  <si>
+    <t>lindawu1969@gmail.com
+lindawu@chancevideos.com</t>
+  </si>
+  <si>
+    <t>chancesight.com</t>
+  </si>
+  <si>
+    <t>專業服務方案
+* 小樹苗數位行銷市集-Meta 廣告自操方案
+   - 服務費優惠 2.5% (原服務費 3%)
+   - 方案介紹：https://www.ad-hub.net/products/self-serve-service/
+* 數位廣告代操優惠
+   - 服務費 17% (原服務費 20%)
+   - 投遞30萬+/季 服務費 15%
+   - 方案介紹：https://www.ad-hub.net/products/digital-ad-management/#advertising-agent</t>
+  </si>
+  <si>
+    <t>gina.yu@ad-hub.net</t>
+  </si>
+  <si>
+    <t>02-6631-5777</t>
+  </si>
+  <si>
+    <t>@adhub</t>
+  </si>
+  <si>
+    <t>adHub 經緯廣告隸屬 cacaFly 聖洋科技集團，為台灣首家自行研發 Facebook、Google、LINE 等主流媒體 API 工具的團隊，掌握頂尖廣告技術，並為 Meta 企業合作夥伴。累積服務 5000+ 客戶，創造 2,600 億+ 曝光、45 億+ 投放金額；以雙證照優化團隊與豐富實戰經驗，提供從策略到執行的一站式服務，輔導上千家中小企業完成數位轉型與成長。</t>
+  </si>
+  <si>
+    <t>Gina Yu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -441,6 +460,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -553,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -577,31 +602,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -620,36 +636,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,11 +978,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,239 +1037,204 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="175" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>46</v>
+      <c r="I2" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>33</v>
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="29" t="s">
+      <c r="A5" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="H5" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="D6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="K6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="17" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="113.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="14" t="s">
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="K8" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1279,13 +1245,12 @@
     <hyperlink ref="L2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="H5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="I5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="I6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/[服務商優惠徵集 ] Paid.xlsx
+++ b/[服務商優惠徵集 ] Paid.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanniel\OneDrive - amazon.com\桌面\2025 Q4 SSP benefits\Paid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ACF2D-3AC8-492B-B960-6A6FA5E6D90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF77ABB4-771E-41FF-BD3E-19A12C70740C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>WotoHub網紅平台 ​</t>
   </si>
   <si>
-    <t>站內通訊額度提升至1萬則</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1aZQspCHCQ34v0OxTQo6TjizjcTbEH3bT</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1wDiUmmByVQtEyMe_bfD6gCTg3Qhxnfxd</t>
-  </si>
-  <si>
-    <t>Lucia Chang</t>
   </si>
   <si>
     <t>lucia@wotokol.com</t>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>Gina Yu</t>
+  </si>
+  <si>
+    <t>Lucia Zhang</t>
+  </si>
+  <si>
+    <t>臥兔6000萬網紅紅人庫 專業版提供每月5000封網紅郵件聯繫額度, 加入亞馬遜賣家成長服務 加送每月額外5000封網紅郵件聯繫額度</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -651,6 +651,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -981,8 +984,8 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
@@ -1054,18 +1057,18 @@
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="19" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J2" s="20"/>
       <c r="K2" s="18"/>
       <c r="L2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1082,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>21</v>
@@ -1091,7 +1094,7 @@
         <v>22</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>23</v>
@@ -1102,10 +1105,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1117,18 +1120,18 @@
         <v>29</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>45</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>30</v>
@@ -1137,27 +1140,27 @@
         <v>31</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H5" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="J5" s="23" t="s">
         <v>47</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>12</v>
@@ -1166,16 +1169,16 @@
         <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="J6" s="20" t="s">
         <v>13</v>
@@ -1184,12 +1187,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="90.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -1197,22 +1200,22 @@
       <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>36</v>
+      <c r="E7" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="113.5" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -1221,19 +1224,19 @@
         <v>34</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>67</v>
-      </c>
       <c r="K8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
